--- a/Examples/Soccer and Football Example/Football Membership List.xlsx
+++ b/Examples/Soccer and Football Example/Football Membership List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\Soccer and Football Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\Examples\Soccer and Football Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D614D1B1-A626-49CF-A0E9-0EF3A327A7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DB2EF4-335C-4E2F-8845-DEE38EE8BA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{1DBD3FBA-DBD9-4B33-A8C4-001A996E3D4C}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +161,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,18 +201,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -500,179 +545,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1086A55-6767-4CEC-AFED-E8B8781C9B42}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>